--- a/城乡居民采集功能列表2016.11.18.xlsx
+++ b/城乡居民采集功能列表2016.11.18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>序号</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>★★</t>
     </r>
     <r>
@@ -70,6 +76,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -108,26 +120,6 @@
     <t>家庭参保</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>★★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>☆☆☆</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">（1）家庭参保与人员关系由户主身份证号码改为家庭编号  ，新增家庭用户主身份证号作为家庭编号，已有家庭用下载的家庭编号。                                </t>
   </si>
   <si>
@@ -177,13 +169,31 @@
     <t>人员界面</t>
   </si>
   <si>
-    <t>（1）人员类别选项根据情况显示部分
+    <r>
+      <t>（1）人员类别选项根据情况显示部分
 （2）民族全部显示
 （3）换户主关系只置空必录项
-（4）保留其他证件类型，若为身份证只可录18位。
+（4）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保留其他证件类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，若为身份证只可录18位。
 （5）出生日期可编辑。
 （5）姓名只控制长度（长度建人员基本信息表），无其他规则
 （6）根据收费策略修改缴费金额</t>
+    </r>
   </si>
   <si>
     <t>验证重复</t>
@@ -223,13 +233,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,14 +269,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,8 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +314,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -309,17 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,8 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,24 +383,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,15 +406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +423,13 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,19 +440,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,163 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,24 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -713,17 +712,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +753,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -753,27 +772,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,137 +814,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,22 +987,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1309,7 +1320,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1401,10 +1412,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>15</v>
@@ -1416,7 +1427,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="33.75" customHeight="1" spans="1:10">
@@ -1424,20 +1435,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -1454,18 +1465,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
@@ -1482,18 +1493,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="12">
         <v>2</v>
@@ -1510,17 +1521,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>15</v>
@@ -1532,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="46" customHeight="1" spans="1:10">
@@ -1540,18 +1551,18 @@
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="12">
         <v>3</v>
@@ -1560,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:10">
@@ -1568,88 +1579,88 @@
         <v>7</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="H9" s="12">
         <v>2</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:10">
-      <c r="C10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="C10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:10">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/城乡居民采集功能列表2016.11.18.xlsx
+++ b/城乡居民采集功能列表2016.11.18.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635"/>
+    <workbookView windowWidth="17235" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:J15"/>
 </workbook>
 </file>
 
@@ -172,13 +173,31 @@
     <r>
       <t>（1）人员类别选项根据情况显示部分
 （2）民族全部显示
-（3）换户主关系只置空必录项
+（3）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换户主关系只置空必录项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 （4）</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>保留其他证件类型</t>
@@ -187,10 +206,29 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，若为身份证只可录18位。
-（5）出生日期可编辑。
+（5）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生日期可编辑。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 （5）姓名只控制长度（长度建人员基本信息表），无其他规则
 （6）根据收费策略修改缴费金额</t>
     </r>
@@ -234,12 +272,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,15 +307,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,121 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,9 +471,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -440,43 +490,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,139 +664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,26 +747,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,17 +792,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,30 +844,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -802,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,19 +864,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,116 +885,116 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,14 +1037,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1319,8 +1372,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1530,7 +1583,7 @@
       <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -1551,14 +1604,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -1586,7 +1639,7 @@
       <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="12" t="s">
         <v>38</v>
       </c>
@@ -1601,66 +1654,66 @@
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:10">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:10">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/城乡居民采集功能列表2016.11.18.xlsx
+++ b/城乡居民采集功能列表2016.11.18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17235" windowHeight="8685"/>
+    <workbookView windowWidth="28695" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,18 @@
     <t>家庭参保</t>
   </si>
   <si>
-    <t xml:space="preserve">（1）家庭参保与人员关系由户主身份证号码改为家庭编号  ，新增家庭用户主身份证号作为家庭编号，已有家庭用下载的家庭编号。                                </t>
+    <r>
+      <t xml:space="preserve">（1）家庭参保与人员关系由户主身份证号码改为家庭编号  ，新增家庭用户主身份证号作为家庭编号，已有家庭用下载的家庭编号。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                               </t>
+    </r>
   </si>
   <si>
     <t>2016.11.25</t>
@@ -171,6 +182,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>（1）人员类别选项根据情况显示部分
 （2）民族全部显示
 （3）</t>
@@ -188,6 +204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -271,13 +288,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,10 +323,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="华文细黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,6 +343,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -328,44 +398,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -374,22 +422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,55 +436,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,16 +493,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -490,43 +513,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,138 +694,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,32 +770,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,35 +809,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +843,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,137 +887,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +1061,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,7 +1399,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1467,7 +1493,7 @@
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -1525,7 +1551,7 @@
       <c r="E5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -1553,7 +1579,7 @@
       <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -1574,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1583,7 +1609,7 @@
       <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -1604,14 +1630,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -1639,7 +1665,7 @@
       <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="12" t="s">
         <v>38</v>
       </c>
@@ -1654,66 +1680,66 @@
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:10">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:10">
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/城乡居民采集功能列表2016.11.18.xlsx
+++ b/城乡居民采集功能列表2016.11.18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635"/>
+    <workbookView windowWidth="17880" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文细黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">（1）家庭参保与人员关系由户主身份证号码改为家庭编号  ，新增家庭用户主身份证号作为家庭编号，已有家庭用下载的家庭编号。 </t>
     </r>
     <r>
@@ -182,13 +188,26 @@
   </si>
   <si>
     <r>
+      <t>（1）人员类别选项根据情况显示部分
+（2）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民族全部显示</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（1）人员类别选项根据情况显示部分
-（2）民族全部显示
+      <t xml:space="preserve">
 （3）</t>
     </r>
     <r>
@@ -288,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
   </numFmts>
   <fonts count="29">
@@ -338,14 +357,126 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,121 +491,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,12 +518,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -513,187 +532,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +789,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -788,38 +837,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,25 +873,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,10 +894,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,133 +906,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1085,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1398,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/城乡居民采集功能列表2016.11.18.xlsx
+++ b/城乡居民采集功能列表2016.11.18.xlsx
@@ -245,8 +245,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，若为身份证只可录18位。
-（5）</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -255,7 +254,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>出生日期可编辑。</t>
+      <t>若为身份证只可录18位。</t>
     </r>
     <r>
       <rPr>
@@ -265,7 +264,44 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-（5）姓名只控制长度（长度建人员基本信息表），无其他规则
+（5）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生日期可编辑。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（5）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名只控制长度（长度建人员基本信息表），无其他规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 （6）根据收费策略修改缴费金额</t>
     </r>
   </si>
@@ -361,6 +397,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -369,80 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -492,14 +536,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,6 +574,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,6 +616,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,7 +640,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,85 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,30 +730,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -707,12 +749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +855,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -871,21 +922,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -894,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
